--- a/wikipedia_validation_sheets/Kaposi's sarcoma DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Kaposi's sarcoma DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{86E99457-4CA2-6043-B97C-2E735664733C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68642971-928B-7844-8371-86ADF5958F73}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="155">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -351,9 +356,6 @@
     <t>Kaposi's sarcoma</t>
   </si>
   <si>
-    <t>nodules or blotches that may be red, purple, brown, or black, and are usually papular.</t>
-  </si>
-  <si>
     <t>fungating lesions</t>
   </si>
   <si>
@@ -366,9 +368,6 @@
     <t>FPREAL</t>
   </si>
   <si>
-    <t>PLAQUES</t>
-  </si>
-  <si>
     <t>VISCERAL LESIONS</t>
   </si>
   <si>
@@ -376,6 +375,126 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>nodules</t>
+  </si>
+  <si>
+    <t>Nodule</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>tumour</t>
+  </si>
+  <si>
+    <t>Neoplasms</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>aggressiveness</t>
+  </si>
+  <si>
+    <t>Aggressive behavior</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>bleed, bleeding</t>
+  </si>
+  <si>
+    <t>Hemorrhage</t>
+  </si>
+  <si>
+    <t>hhv, 8, kaposis, sarcoma</t>
+  </si>
+  <si>
+    <t>Kaposi sarcoma</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>Suffering</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm</t>
+  </si>
+  <si>
+    <t>vascular, proliferation</t>
+  </si>
+  <si>
+    <t>Vascular proliferation</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>Absence (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>[anab]</t>
+  </si>
+  <si>
+    <t>cutaneous, kaposi, sarcoma</t>
+  </si>
+  <si>
+    <t>Kaposi's sarcoma of skin</t>
+  </si>
+  <si>
+    <t>obstruction</t>
+  </si>
+  <si>
+    <t>Obstruction</t>
+  </si>
+  <si>
+    <t>pyogenic, granuloma</t>
+  </si>
+  <si>
+    <t>Pyogenic granuloma</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>aids, associated, kaposi, sarcoma</t>
+  </si>
+  <si>
+    <t>AIDS with Kaposi's sarcoma</t>
+  </si>
+  <si>
+    <t>plaques</t>
+  </si>
+  <si>
+    <t>Senile plaque</t>
+  </si>
+  <si>
+    <t>infiltrates, infiltration</t>
+  </si>
+  <si>
+    <t>Infiltration</t>
   </si>
 </sst>
 </file>
@@ -407,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -786,16 +911,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -809,6 +928,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,7 +960,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1156,53 +1291,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1246,10 +1382,10 @@
       <c r="E4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -1430,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1459,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1749,7 +1885,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1865,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2477,155 +2613,710 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="40"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="34" t="s">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="35" t="s">
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="20" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="21" t="s">
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="21" t="s">
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="21" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="20" t="s">
+    <row r="69" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="21" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>13</v>
-      </c>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2634,7 +3325,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C46">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C63">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
